--- a/equipment_sequence/zhong_xin/clear_o2/clear_o2_manual.xlsx
+++ b/equipment_sequence/zhong_xin/clear_o2/clear_o2_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" tabRatio="635" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="14" r:id="rId1"/>
@@ -14,12 +14,10 @@
     <sheet name="ec_ids" sheetId="16" r:id="rId5"/>
     <sheet name="remote_commands" sheetId="13" r:id="rId6"/>
     <sheet name="enhance_remote_commands" sheetId="17" r:id="rId7"/>
-    <sheet name="上料设备" sheetId="18" r:id="rId8"/>
-    <sheet name="下料设备" sheetId="19" r:id="rId9"/>
-    <sheet name="VID" sheetId="7" state="hidden" r:id="rId10"/>
-    <sheet name="Recipe" sheetId="8" state="hidden" r:id="rId11"/>
-    <sheet name="RCMD" sheetId="6" state="hidden" r:id="rId12"/>
-    <sheet name="SECS定义协议" sheetId="10" state="hidden" r:id="rId13"/>
+    <sheet name="VID" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Recipe" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="RCMD" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="SECS定义协议" sheetId="10" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">secs指令!$A$1:$H$1</definedName>
@@ -199,6 +197,31 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t xml:space="preserve">S6F11 W
+  &lt;L [3]
+    &lt;U1 1 &gt;
+    &lt;U2 1006 &gt;
+    &lt;L [1]
+      &lt;L [2]
+        &lt;U4 6 &gt;
+        &lt;L [1]
+          &lt;A "87063510861224092400965"&gt;
+        &gt;
+      &gt;
+    &gt;
+  &gt; .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>S6F11 W
   &lt;L [3]
     &lt;U1 1 &gt;
@@ -217,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +492,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>S2F41 W
+  &lt;L [2]
+    &lt;A "tray_in_reply"&gt;
+    &lt;L [1]
+      &lt;L [2]
+        &lt;A "is_allow__in"&gt;
+        &lt;U4 1 &gt;
+      &gt;
+      &lt;L [2]
+        &lt;A "lot_name"&gt;
+        &lt;A "lot_name_value"&gt;  
+      &gt;
+    &gt;
+  &gt; .</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>S2F41 W
+  &lt;L [2]
+    &lt;A "carrier_out_reply"&gt;
+    &lt;L [1]
+      &lt;L [2]
+        &lt;A "is_allow_carrier_out"&gt;
+        &lt;U4 1 &gt;
+      &gt;
+      &lt;L [2]
+        &lt;A "lot_name"&gt;
+        &lt;A "lot_name_value"&gt;  
+      &gt;
+    &gt;
+  &gt; .</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="285">
   <si>
     <t>direction</t>
   </si>
@@ -705,6 +778,18 @@
     <t>放了产品的回流焊托盘出站</t>
   </si>
   <si>
+    <t>tray_in_request</t>
+  </si>
+  <si>
+    <t>带有产品的tray请求进站</t>
+  </si>
+  <si>
+    <t>tray_code</t>
+  </si>
+  <si>
+    <t>带有产品的tray盘码</t>
+  </si>
+  <si>
     <t>pp_select_result</t>
   </si>
   <si>
@@ -821,6 +906,30 @@
     <t>eap是否回复了产品可做</t>
   </si>
   <si>
+    <t>is_allow_carrier_out</t>
+  </si>
+  <si>
+    <t>eap是否允许带有产品的回流焊出站</t>
+  </si>
+  <si>
+    <t>is_allow_carrier_out_reply</t>
+  </si>
+  <si>
+    <t>eap是否回复了带有产品的回流焊出站请求</t>
+  </si>
+  <si>
+    <t>is_allow_tray_in</t>
+  </si>
+  <si>
+    <t>eap是否允许带有产品的tray盘进站</t>
+  </si>
+  <si>
+    <t>is_allow_tray_in_reply</t>
+  </si>
+  <si>
+    <t>eap是否回复了带有产品的tray盘进站请求</t>
+  </si>
+  <si>
     <t>ec_id</t>
   </si>
   <si>
@@ -930,356 +1039,220 @@
     <t>eap回复产品是否可以放进回流焊托盘</t>
   </si>
   <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>所属</t>
-  </si>
-  <si>
-    <t>mes操作方式</t>
+    <t>tray_in_reply</t>
+  </si>
+  <si>
+    <t>eap回复带有产品的tray盘请求进站</t>
+  </si>
+  <si>
+    <t>carrier_out_reply</t>
+  </si>
+  <si>
+    <t>eap回复带有产品的回流焊盘请求出站</t>
+  </si>
+  <si>
+    <t>VID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Control Status</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Process Status</t>
+  </si>
+  <si>
+    <t>当前仅为样例，需根据设备实际参数定义</t>
+  </si>
+  <si>
+    <t>Recipe Number</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>LotNumber</t>
+  </si>
+  <si>
+    <t>FrameSN</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>询问外框条码</t>
+  </si>
+  <si>
+    <t>询问map</t>
+  </si>
+  <si>
+    <t>询问工单完成情况</t>
+  </si>
+  <si>
+    <t>核对DBC条码</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>StripId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request stripmap </t>
+  </si>
+  <si>
+    <t>StripsToGo</t>
+  </si>
+  <si>
+    <t>Check StripId</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>OBJSPEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>空值</t>
+  </si>
+  <si>
+    <t>OBJTYPE</t>
+  </si>
+  <si>
+    <t>Mapdata</t>
+  </si>
+  <si>
+    <t>CheckStripId</t>
+  </si>
+  <si>
+    <t>OBJID</t>
+  </si>
+  <si>
+    <t>workOrder</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>RCMD</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>RCMD Data</t>
+  </si>
+  <si>
+    <t>CPNAME</t>
+  </si>
+  <si>
+    <t>CPVAL</t>
+  </si>
+  <si>
+    <t>SUB CPNAME</t>
+  </si>
+  <si>
+    <t>PP-SELECT</t>
+  </si>
+  <si>
+    <t>PPNAME</t>
+  </si>
+  <si>
+    <t>download recipe</t>
+  </si>
+  <si>
+    <t>RECIPENAME</t>
+  </si>
+  <si>
+    <t>STARTWORKORDER</t>
+  </si>
+  <si>
+    <t>workorder-id</t>
+  </si>
+  <si>
+    <t>MATERIAL-VALIDATION</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>"id"</t>
+  </si>
+  <si>
+    <t>material code</t>
+  </si>
+  <si>
+    <t>TrackInReply</t>
+  </si>
+  <si>
+    <t>barcodes</t>
+  </si>
+  <si>
+    <t>code1&amp;code2&amp;NA&amp;code4</t>
+  </si>
+  <si>
+    <t>OKNG</t>
+  </si>
+  <si>
+    <t>OK&amp;OK&amp;NA&amp;OK</t>
+  </si>
+  <si>
+    <t>TrackOutReply</t>
+  </si>
+  <si>
+    <t>Platecode</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>DownloadRecipe</t>
+  </si>
+  <si>
+    <t>RECIPEVALUE</t>
+  </si>
+  <si>
+    <t>LotStartReply</t>
+  </si>
+  <si>
+    <t>LOT Number</t>
+  </si>
+  <si>
+    <t>LotEndReply</t>
+  </si>
+  <si>
+    <t>LotQty</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Collected Event ID-1</t>
+  </si>
+  <si>
+    <t>CEID</t>
+  </si>
+  <si>
+    <t>RPTID</t>
   </si>
   <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>心跳</t>
-  </si>
-  <si>
-    <t>MES 心跳 2s 更新一次</t>
-  </si>
-  <si>
-    <t>mes</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>控制状态</t>
-  </si>
-  <si>
-    <t>控制状态,本地模式 or MES控制模式</t>
-  </si>
-  <si>
-    <t>plc</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>True:本地模式
-False:MES模式</t>
-  </si>
-  <si>
-    <t>运行状态</t>
-  </si>
-  <si>
-    <t>设备运行状态</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>1: Manual,手动模式
-2: Auto,自动模式下停止状态
-3: AutoRun,自动模式下运行状态
-4: Alarm
-5: ScheduleDown
-6: Engineer</t>
-  </si>
-  <si>
-    <t>当前配方</t>
-  </si>
-  <si>
-    <t>报警</t>
-  </si>
-  <si>
-    <t>当运行状态是4alarm时读取报警代码</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>切换配方</t>
-  </si>
-  <si>
-    <t>写入要切换的配方id</t>
-  </si>
-  <si>
-    <t>写入切换配方信号</t>
-  </si>
-  <si>
-    <t>读取plc切换完成信号</t>
-  </si>
-  <si>
-    <t>读取当前配方id</t>
-  </si>
-  <si>
-    <t>开工单</t>
-  </si>
-  <si>
-    <t>写入工单名称</t>
-  </si>
-  <si>
-    <t>写入工单数量</t>
-  </si>
-  <si>
-    <t>写入工单状态</t>
-  </si>
-  <si>
-    <t>3：允许生产</t>
-  </si>
-  <si>
-    <t>回流焊进站信号</t>
-  </si>
-  <si>
-    <t>回流焊进站信号信号</t>
-  </si>
-  <si>
-    <t>读取回流焊托盘码</t>
-  </si>
-  <si>
-    <t>写入回流焊托盘是否能进站</t>
-  </si>
-  <si>
-    <t>1.可做
-2.不可做</t>
-  </si>
-  <si>
-    <t>mes反馈信号,plc监控到这个信号将plc信号清空</t>
-  </si>
-  <si>
-    <t>产品放入回流焊信号</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>读取产品码</t>
-  </si>
-  <si>
-    <t>写入产品是否可做</t>
-  </si>
-  <si>
-    <t>1：可做
-2：不可做
-3：尾料</t>
-  </si>
-  <si>
-    <t>回流焊出站信号</t>
-  </si>
-  <si>
-    <t>读取回流焊里面所有的产品码</t>
-  </si>
-  <si>
-    <t>1：OK
-2：NG</t>
-  </si>
-  <si>
-    <t>VID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Control Status</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Process Status</t>
-  </si>
-  <si>
-    <t>当前仅为样例，需根据设备实际参数定义</t>
-  </si>
-  <si>
-    <t>Recipe Number</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>LotNumber</t>
-  </si>
-  <si>
-    <t>FrameSN</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>询问外框条码</t>
-  </si>
-  <si>
-    <t>询问map</t>
-  </si>
-  <si>
-    <t>询问工单完成情况</t>
-  </si>
-  <si>
-    <t>核对DBC条码</t>
-  </si>
-  <si>
-    <t>CMD</t>
-  </si>
-  <si>
-    <t>StripId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request stripmap </t>
-  </si>
-  <si>
-    <t>StripsToGo</t>
-  </si>
-  <si>
-    <t>Check StripId</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>OBJSPEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>空值</t>
-  </si>
-  <si>
-    <t>OBJTYPE</t>
-  </si>
-  <si>
-    <t>Mapdata</t>
-  </si>
-  <si>
-    <t>CheckStripId</t>
-  </si>
-  <si>
-    <t>OBJID</t>
-  </si>
-  <si>
-    <t>workOrder</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>RCMD</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>RCMD Data</t>
-  </si>
-  <si>
-    <t>CPNAME</t>
-  </si>
-  <si>
-    <t>CPVAL</t>
-  </si>
-  <si>
-    <t>SUB CPNAME</t>
-  </si>
-  <si>
-    <t>PP-SELECT</t>
-  </si>
-  <si>
-    <t>PPNAME</t>
-  </si>
-  <si>
-    <t>download recipe</t>
-  </si>
-  <si>
-    <t>RECIPENAME</t>
-  </si>
-  <si>
-    <t>STARTWORKORDER</t>
-  </si>
-  <si>
-    <t>workorder-id</t>
-  </si>
-  <si>
-    <t>MATERIAL-VALIDATION</t>
-  </si>
-  <si>
-    <t>Material Type</t>
-  </si>
-  <si>
-    <t>ACCEPTED</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>"id"</t>
-  </si>
-  <si>
-    <t>material code</t>
-  </si>
-  <si>
-    <t>TrackInReply</t>
-  </si>
-  <si>
-    <t>barcodes</t>
-  </si>
-  <si>
-    <t>code1&amp;code2&amp;NA&amp;code4</t>
-  </si>
-  <si>
-    <t>OKNG</t>
-  </si>
-  <si>
-    <t>OK&amp;OK&amp;NA&amp;OK</t>
-  </si>
-  <si>
-    <t>TrackOutReply</t>
-  </si>
-  <si>
-    <t>Platecode</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>DownloadRecipe</t>
-  </si>
-  <si>
-    <t>RECIPEVALUE</t>
-  </si>
-  <si>
-    <t>LotStartReply</t>
-  </si>
-  <si>
-    <t>LOT Number</t>
-  </si>
-  <si>
-    <t>LotEndReply</t>
-  </si>
-  <si>
-    <t>LotQty</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Collected Event ID-1</t>
-  </si>
-  <si>
-    <t>CEID</t>
-  </si>
-  <si>
-    <t>RPTID</t>
   </si>
   <si>
     <t>Process State Change</t>
@@ -1639,13 +1612,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1655,6 +1621,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1830,7 +1803,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1887,19 +1860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,7 +2463,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2520,7 +2487,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2529,7 +2496,7 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2538,89 +2505,89 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2862,46 +2829,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2916,49 +2856,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3317,184 +3275,184 @@
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="90" customWidth="1"/>
-    <col min="2" max="2" width="9" style="90"/>
-    <col min="3" max="3" width="24" style="90" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="90" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="90" customWidth="1"/>
-    <col min="6" max="6" width="9" style="90"/>
-    <col min="7" max="7" width="29.5" style="90" customWidth="1"/>
-    <col min="8" max="8" width="42.5" style="90" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="90"/>
+    <col min="1" max="1" width="17.125" style="81" customWidth="1"/>
+    <col min="2" max="2" width="9" style="81"/>
+    <col min="3" max="3" width="24" style="81" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="81" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="81" customWidth="1"/>
+    <col min="6" max="6" width="9" style="81"/>
+    <col min="7" max="7" width="29.5" style="81" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="81" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" s="90" customFormat="1" spans="1:8">
-      <c r="A1" s="91" t="s">
+    <row r="1" s="81" customFormat="1" spans="1:8">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="91" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="82" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="90" customFormat="1" spans="1:8">
-      <c r="A2" s="95" t="s">
+    <row r="2" s="81" customFormat="1" spans="1:8">
+      <c r="A2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="90" customFormat="1" ht="27" spans="1:8">
-      <c r="A3" s="95" t="s">
+    <row r="3" s="81" customFormat="1" ht="27" spans="1:8">
+      <c r="A3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="90" customFormat="1" ht="54" spans="1:8">
-      <c r="A4" s="95" t="s">
+    <row r="4" s="81" customFormat="1" ht="54" spans="1:8">
+      <c r="A4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="87" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="90" customFormat="1" spans="1:8">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="E5" s="95" t="s">
+    <row r="5" s="81" customFormat="1" spans="1:8">
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="E5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="95"/>
-    </row>
-    <row r="6" s="90" customFormat="1" ht="54" spans="1:8">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="E6" s="95" t="s">
+      <c r="H5" s="86"/>
+    </row>
+    <row r="6" s="81" customFormat="1" ht="54" spans="1:8">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="E6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="87" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="90" customFormat="1" spans="1:8">
-      <c r="A7" s="95" t="s">
+    <row r="7" s="81" customFormat="1" spans="1:8">
+      <c r="A7" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="95"/>
-    </row>
-    <row r="8" s="90" customFormat="1" ht="27" spans="1:8">
-      <c r="A8" s="95" t="s">
+      <c r="H7" s="86"/>
+    </row>
+    <row r="8" s="81" customFormat="1" ht="27" spans="1:8">
+      <c r="A8" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="87" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3505,282 +3463,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="76" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="77">
-        <v>0</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="77">
-        <v>1</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="75">
-        <v>10</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="80"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="75">
-        <v>100</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="80"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="75">
-        <v>200</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="80"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:D6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="21" spans="1:5">
-      <c r="A1" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" ht="21" spans="1:5">
-      <c r="A2" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" ht="21" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="14">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="21" spans="1:6">
-      <c r="A4" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" ht="21" spans="1:5">
-      <c r="A5" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" ht="21" spans="1:5">
-      <c r="A6" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="21" spans="1:5">
-      <c r="A7" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" ht="21" spans="1:5">
-      <c r="A8" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="75">
-        <v>0</v>
-      </c>
-      <c r="C8" s="75">
-        <v>0</v>
-      </c>
-      <c r="D8" s="75">
-        <v>0</v>
-      </c>
-      <c r="E8" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="21" spans="1:5">
-      <c r="A9" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="75">
-        <v>0</v>
-      </c>
-      <c r="C9" s="75">
-        <v>0</v>
-      </c>
-      <c r="D9" s="75">
-        <v>0</v>
-      </c>
-      <c r="E9" s="75">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G21"/>
@@ -3802,13 +3484,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
@@ -3821,16 +3503,16 @@
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G2" s="63"/>
     </row>
@@ -3839,23 +3521,23 @@
         <v>4000</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="67"/>
       <c r="F3" s="64"/>
       <c r="G3" s="67" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="64"/>
       <c r="B4" s="68"/>
       <c r="C4" s="66" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="67"/>
@@ -3867,16 +3549,16 @@
         <v>4001</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="67"/>
       <c r="F5" s="64"/>
       <c r="G5" s="67" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3884,23 +3566,23 @@
         <v>4002</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
       <c r="G6" s="69" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71"/>
       <c r="B7" s="68"/>
       <c r="C7" s="66" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
@@ -3911,10 +3593,10 @@
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="66" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
@@ -3924,7 +3606,7 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="66" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -3936,13 +3618,13 @@
         <v>4003</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -3952,10 +3634,10 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="66" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -3966,10 +3648,10 @@
         <v>4004</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -3980,7 +3662,7 @@
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="66" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -3992,10 +3674,10 @@
         <v>4005</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -4006,7 +3688,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="66" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -4018,10 +3700,10 @@
         <v>4006</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -4032,7 +3714,7 @@
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="66" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -4044,10 +3726,10 @@
         <v>4007</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -4058,7 +3740,7 @@
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="66" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -4070,10 +3752,10 @@
         <v>4008</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -4084,7 +3766,7 @@
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="66" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>
@@ -4122,7 +3804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D1:N55"/>
@@ -4149,27 +3831,27 @@
   <sheetData>
     <row r="1" ht="21.75" spans="4:4">
       <c r="D1" s="2" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="4:9">
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="4:9">
@@ -4177,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -4186,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="4:9">
@@ -4198,7 +3880,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="I4" s="41"/>
     </row>
@@ -4208,7 +3890,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -4218,7 +3900,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -4228,7 +3910,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -4237,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -4246,16 +3928,16 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="M8" s="44"/>
     </row>
@@ -4265,17 +3947,17 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="I9" s="41"/>
       <c r="K9" s="14">
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:13">
@@ -4284,13 +3966,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="I10" s="41"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="45" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:13">
@@ -4299,13 +3981,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I11" s="42"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="45" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:13">
@@ -4313,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -4322,15 +4004,15 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="45" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:13">
@@ -4338,7 +4020,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
@@ -4347,15 +4029,15 @@
         <v>4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="46" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:13">
@@ -4366,19 +4048,19 @@
         <v>5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="K14" s="14">
         <v>2</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:13">
@@ -4386,7 +4068,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
@@ -4395,15 +4077,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="45" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:13">
@@ -4414,15 +4096,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="45" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:13">
@@ -4433,15 +4115,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="46" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:13">
@@ -4449,7 +4131,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
@@ -4458,19 +4140,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="K18" s="11">
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:13">
@@ -4478,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4488,10 +4170,10 @@
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:9">
@@ -4499,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="F20" s="15">
         <v>8</v>
@@ -4508,10 +4190,10 @@
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:9">
@@ -4519,7 +4201,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -4531,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F22" s="16">
         <v>10</v>
@@ -4540,10 +4222,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:9">
@@ -4570,16 +4252,16 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="K25" s="47" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="L25" s="48" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" ht="32.25" spans="4:14">
@@ -4590,40 +4272,40 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="K26" s="49" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:14">
       <c r="D27" s="11"/>
       <c r="E27" s="16" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="K27" s="49" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="23"/>
       <c r="E28" s="16" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -4633,45 +4315,45 @@
     <row r="37" ht="14.25"/>
     <row r="38" ht="16.5" spans="4:10">
       <c r="D38" s="24" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:10">
       <c r="D39" s="27" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="J39" s="12">
         <v>2</v>
@@ -4681,14 +4363,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="11">
         <v>2</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J40" s="12">
         <v>2</v>
@@ -4698,7 +4380,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="G41" s="31"/>
     </row>
@@ -4706,7 +4388,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="33" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="G42" s="31"/>
     </row>
@@ -4714,7 +4396,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="33" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="G43" s="31"/>
     </row>
@@ -4722,7 +4404,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
       <c r="F44" s="33" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="G44" s="31"/>
     </row>
@@ -4730,7 +4412,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="31"/>
       <c r="F45" s="33" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -4738,7 +4420,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="33" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="G46" s="31"/>
     </row>
@@ -4746,7 +4428,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="33" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G47" s="31"/>
     </row>
@@ -4754,7 +4436,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="33" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="G48" s="31"/>
     </row>
@@ -4762,7 +4444,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
       <c r="F49" s="33" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="G49" s="31"/>
     </row>
@@ -4770,7 +4452,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
       <c r="F50" s="33" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="G50" s="31"/>
     </row>
@@ -4778,7 +4460,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="33" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="G51" s="31"/>
     </row>
@@ -4786,23 +4468,23 @@
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="G52" s="35"/>
     </row>
     <row r="53" ht="21" spans="4:4">
       <c r="D53" s="37" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="4:4">
       <c r="D54" s="38" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="4:4">
       <c r="D55" s="39" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4847,503 +4529,530 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="90" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="90" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="90" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="90" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="90" customWidth="1"/>
-    <col min="6" max="6" width="34" style="90" customWidth="1"/>
-    <col min="7" max="7" width="16" style="90" customWidth="1"/>
-    <col min="8" max="8" width="29.75" style="90" customWidth="1"/>
-    <col min="9" max="9" width="28.25" style="90" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="90"/>
+    <col min="1" max="1" width="6.625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="81" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="81" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="81" customWidth="1"/>
+    <col min="6" max="6" width="34" style="81" customWidth="1"/>
+    <col min="7" max="7" width="16" style="81" customWidth="1"/>
+    <col min="8" max="8" width="29.75" style="81" customWidth="1"/>
+    <col min="9" max="9" width="28.25" style="81" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A1" s="100" t="s">
+    <row r="1" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="109" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" s="92" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A2" s="93" t="s">
+    <row r="2" s="83" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A2" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="102"/>
-    </row>
-    <row r="3" s="90" customFormat="1" ht="37.5" spans="1:9">
-      <c r="A3" s="102">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="96"/>
+    </row>
+    <row r="3" s="81" customFormat="1" ht="37.5" spans="1:9">
+      <c r="A3" s="96">
         <v>1001</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="102">
+      <c r="D3" s="96">
         <v>1</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="96">
         <v>501</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="113" t="s">
+      <c r="I3" s="110" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="90" customFormat="1" ht="112.5" spans="1:9">
-      <c r="A4" s="102">
+    <row r="4" s="81" customFormat="1" ht="112.5" spans="1:9">
+      <c r="A4" s="96">
         <v>1002</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="102">
+      <c r="D4" s="96">
         <v>2</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="96">
         <v>502</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="97" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A5" s="102">
+    <row r="5" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A5" s="96">
         <v>1003</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="96">
         <v>3</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="98">
         <v>602</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="113"/>
-    </row>
-    <row r="6" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A6" s="107">
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A6" s="101">
         <v>1004</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="101">
         <v>4</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="98">
         <v>601</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="104">
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="98">
         <v>602</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="103"/>
-    </row>
-    <row r="8" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A8" s="102">
+      <c r="I7" s="97"/>
+    </row>
+    <row r="8" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A8" s="96">
         <v>1005</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="96">
         <v>5</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="98">
         <v>602</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="113"/>
-    </row>
-    <row r="9" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A9" s="102">
+      <c r="I8" s="110"/>
+    </row>
+    <row r="9" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A9" s="105">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="105">
+        <v>6</v>
+      </c>
+      <c r="E9" s="107">
+        <v>609</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="110"/>
+    </row>
+    <row r="10" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A10" s="96">
         <v>2000</v>
       </c>
-      <c r="B9" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="107">
+      <c r="B10" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="101">
         <v>3</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E10" s="96">
         <v>503</v>
       </c>
-      <c r="F9" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="102" t="s">
+      <c r="F10" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="102"/>
-    </row>
-    <row r="10" s="90" customFormat="1" ht="37.5" spans="1:9">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="102">
+      <c r="H10" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" s="81" customFormat="1" ht="37.5" spans="1:9">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="96">
         <v>509</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F11" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="96">
+        <v>507</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" s="83" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A13" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" s="81" customFormat="1" ht="37.5" spans="1:9">
+      <c r="A14" s="96">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="96">
+        <v>1</v>
+      </c>
+      <c r="E14" s="96">
+        <v>501</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" s="81" customFormat="1" ht="112.5" spans="1:9">
+      <c r="A15" s="96">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="96">
+        <v>2</v>
+      </c>
+      <c r="E15" s="96">
+        <v>502</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A16" s="96">
+        <v>1003</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="96">
+        <v>3</v>
+      </c>
+      <c r="E16" s="98">
+        <v>602</v>
+      </c>
+      <c r="F16" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="110"/>
+    </row>
+    <row r="17" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A17" s="96">
+        <v>1005</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="96">
+        <v>5</v>
+      </c>
+      <c r="E17" s="98">
+        <v>602</v>
+      </c>
+      <c r="F17" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="110"/>
+    </row>
+    <row r="18" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A18" s="96">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="C18" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="D18" s="101">
+        <v>3</v>
+      </c>
+      <c r="E18" s="96">
+        <v>503</v>
+      </c>
+      <c r="F18" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="G18" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="96" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="102">
+      <c r="I18" s="96"/>
+    </row>
+    <row r="19" s="81" customFormat="1" ht="37.5" spans="1:9">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="96">
+        <v>509</v>
+      </c>
+      <c r="F19" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" s="81" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="96">
         <v>507</v>
       </c>
-      <c r="F11" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="102" t="s">
+      <c r="F20" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="103"/>
-    </row>
-    <row r="12" s="92" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A12" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" s="90" customFormat="1" ht="37.5" spans="1:9">
-      <c r="A13" s="102">
-        <v>1001</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="102">
-        <v>1</v>
-      </c>
-      <c r="E13" s="102">
-        <v>501</v>
-      </c>
-      <c r="F13" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="113" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" s="90" customFormat="1" ht="112.5" spans="1:9">
-      <c r="A14" s="102">
-        <v>1002</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="102">
-        <v>2</v>
-      </c>
-      <c r="E14" s="102">
-        <v>502</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="103" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A15" s="102">
-        <v>1003</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="102">
-        <v>3</v>
-      </c>
-      <c r="E15" s="104">
-        <v>602</v>
-      </c>
-      <c r="F15" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="113"/>
-    </row>
-    <row r="16" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A16" s="102">
-        <v>1005</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="102">
-        <v>5</v>
-      </c>
-      <c r="E16" s="104">
-        <v>602</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="113"/>
-    </row>
-    <row r="17" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A17" s="102">
-        <v>2000</v>
-      </c>
-      <c r="B17" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="107">
-        <v>3</v>
-      </c>
-      <c r="E17" s="102">
-        <v>503</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="102"/>
-    </row>
-    <row r="18" s="90" customFormat="1" ht="37.5" spans="1:9">
-      <c r="A18" s="102"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="102">
-        <v>509</v>
-      </c>
-      <c r="F18" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="106" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" s="90" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="102">
-        <v>507</v>
-      </c>
-      <c r="F19" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="103"/>
+      <c r="H20" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5365,329 +5074,329 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="105" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="105" customWidth="1"/>
-    <col min="3" max="3" width="16" style="105" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="105" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="105" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="105"/>
+    <col min="1" max="1" width="6.625" style="99" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="99" customWidth="1"/>
+    <col min="3" max="3" width="16" style="99" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="99" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="99" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" s="105" customFormat="1" spans="1:5">
-      <c r="A1" s="100" t="s">
+    <row r="1" s="99" customFormat="1" spans="1:5">
+      <c r="A1" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" s="83" customFormat="1" spans="1:5">
+      <c r="A2" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+    </row>
+    <row r="3" s="99" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A3" s="96">
+        <v>501</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" s="99" customFormat="1" ht="112.5" spans="1:5">
+      <c r="A4" s="96">
+        <v>502</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" s="99" customFormat="1" spans="1:5">
+      <c r="A5" s="96">
+        <v>503</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="100"/>
+    </row>
+    <row r="6" s="99" customFormat="1" spans="1:5">
+      <c r="A6" s="96">
+        <v>504</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="100"/>
+    </row>
+    <row r="7" s="99" customFormat="1" spans="1:5">
+      <c r="A7" s="96">
+        <v>505</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="100"/>
+    </row>
+    <row r="8" s="99" customFormat="1" spans="1:5">
+      <c r="A8" s="96">
+        <v>506</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="100"/>
+    </row>
+    <row r="9" s="99" customFormat="1" spans="1:5">
+      <c r="A9" s="96">
+        <v>507</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="E9" s="100"/>
+    </row>
+    <row r="10" s="99" customFormat="1" spans="1:5">
+      <c r="A10" s="96">
+        <v>508</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="100"/>
+    </row>
+    <row r="11" s="99" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A11" s="96">
+        <v>509</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" s="83" customFormat="1" spans="1:5">
+      <c r="A12" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" s="92" customFormat="1" spans="1:5">
-      <c r="A2" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-    </row>
-    <row r="3" s="105" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A3" s="102">
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+    </row>
+    <row r="13" s="99" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A13" s="96">
         <v>501</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B13" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C13" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D13" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E13" s="100" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="105" customFormat="1" ht="112.5" spans="1:5">
-      <c r="A4" s="102">
+    <row r="14" s="99" customFormat="1" ht="112.5" spans="1:5">
+      <c r="A14" s="96">
         <v>502</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B14" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C14" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D14" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E14" s="100" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" s="105" customFormat="1" spans="1:5">
-      <c r="A5" s="102">
+    <row r="15" s="99" customFormat="1" spans="1:5">
+      <c r="A15" s="96">
         <v>503</v>
       </c>
-      <c r="B5" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="102" t="s">
+      <c r="B15" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="106"/>
-    </row>
-    <row r="6" s="105" customFormat="1" spans="1:5">
-      <c r="A6" s="102">
+      <c r="D15" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="100"/>
+    </row>
+    <row r="16" s="99" customFormat="1" spans="1:5">
+      <c r="A16" s="96">
         <v>504</v>
       </c>
-      <c r="B6" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="106"/>
-    </row>
-    <row r="7" s="105" customFormat="1" spans="1:5">
-      <c r="A7" s="102">
+      <c r="B16" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="100"/>
+    </row>
+    <row r="17" s="99" customFormat="1" spans="1:5">
+      <c r="A17" s="96">
         <v>505</v>
       </c>
-      <c r="B7" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="102" t="s">
+      <c r="B17" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="106"/>
-    </row>
-    <row r="8" s="105" customFormat="1" spans="1:5">
-      <c r="A8" s="102">
+      <c r="D17" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="100"/>
+    </row>
+    <row r="18" s="99" customFormat="1" spans="1:5">
+      <c r="A18" s="96">
         <v>506</v>
       </c>
-      <c r="B8" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="106"/>
-    </row>
-    <row r="9" s="105" customFormat="1" spans="1:5">
-      <c r="A9" s="102">
+      <c r="B18" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="100"/>
+    </row>
+    <row r="19" s="99" customFormat="1" spans="1:5">
+      <c r="A19" s="96">
         <v>507</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B19" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="100"/>
+    </row>
+    <row r="20" s="99" customFormat="1" spans="1:5">
+      <c r="A20" s="96">
+        <v>508</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="100"/>
+    </row>
+    <row r="21" s="99" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A21" s="96">
+        <v>509</v>
+      </c>
+      <c r="B21" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="102" t="s">
+      <c r="C21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="106"/>
-    </row>
-    <row r="10" s="105" customFormat="1" spans="1:5">
-      <c r="A10" s="102">
-        <v>508</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="106"/>
-    </row>
-    <row r="11" s="105" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A11" s="102">
-        <v>509</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" s="92" customFormat="1" spans="1:5">
-      <c r="A12" s="93" t="s">
+      <c r="D21" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-    </row>
-    <row r="13" s="105" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A13" s="102">
-        <v>501</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" s="105" customFormat="1" ht="112.5" spans="1:5">
-      <c r="A14" s="102">
-        <v>502</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" s="105" customFormat="1" spans="1:5">
-      <c r="A15" s="102">
-        <v>503</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="106"/>
-    </row>
-    <row r="16" s="105" customFormat="1" spans="1:5">
-      <c r="A16" s="102">
-        <v>504</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="106"/>
-    </row>
-    <row r="17" s="105" customFormat="1" spans="1:5">
-      <c r="A17" s="102">
-        <v>505</v>
-      </c>
-      <c r="B17" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="106"/>
-    </row>
-    <row r="18" s="105" customFormat="1" spans="1:5">
-      <c r="A18" s="102">
-        <v>506</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="106"/>
-    </row>
-    <row r="19" s="105" customFormat="1" spans="1:5">
-      <c r="A19" s="102">
-        <v>507</v>
-      </c>
-      <c r="B19" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="106"/>
-    </row>
-    <row r="20" s="105" customFormat="1" spans="1:5">
-      <c r="A20" s="102">
-        <v>508</v>
-      </c>
-      <c r="B20" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="106"/>
-    </row>
-    <row r="21" s="105" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A21" s="102">
-        <v>509</v>
-      </c>
-      <c r="B21" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="106" t="s">
-        <v>71</v>
+      <c r="E21" s="100" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5704,12 +5413,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5717,158 +5426,237 @@
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="5" max="5" width="45.375" style="99" customWidth="1"/>
+    <col min="4" max="4" width="49.75" customWidth="1"/>
+    <col min="5" max="5" width="45.375" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:5">
-      <c r="A1" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="100" t="s">
+      <c r="A1" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="101" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" s="92" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A2" s="93" t="s">
+      <c r="E1" s="95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" s="83" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
-      <c r="A3" s="104">
+      <c r="A3" s="98">
         <v>601</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="103"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="A4" s="104">
+      <c r="A4" s="98">
         <v>602</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="103"/>
+      <c r="E4" s="97"/>
     </row>
     <row r="5" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A5" s="104">
+      <c r="A5" s="98">
         <v>603</v>
       </c>
-      <c r="B5" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="103" t="s">
-        <v>94</v>
+      <c r="B5" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A6" s="104">
+      <c r="A6" s="98">
         <v>604</v>
       </c>
-      <c r="B6" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="103"/>
+      <c r="B6" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="97"/>
     </row>
     <row r="7" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A7" s="104">
+      <c r="A7" s="98">
         <v>605</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="8" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A8" s="104">
+      <c r="A8" s="98">
         <v>606</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="103"/>
-    </row>
-    <row r="9" s="92" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A9" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-    </row>
-    <row r="10" ht="19" customHeight="1" spans="1:5">
-      <c r="A10" s="104">
+      <c r="D8" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="97"/>
+    </row>
+    <row r="9" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A9" s="98">
+        <v>607</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A10" s="98">
+        <v>608</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="97"/>
+    </row>
+    <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:5">
+      <c r="A11" s="98">
+        <v>609</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A12" s="98">
+        <v>610</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A13" s="98">
+        <v>611</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="97"/>
+    </row>
+    <row r="14" s="83" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A14" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:5">
+      <c r="A15" s="98">
         <v>602</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B15" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C15" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D15" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E15" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5892,143 +5680,143 @@
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="36.625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="36.625" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:5">
-      <c r="A1" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="100" t="s">
+      <c r="A1" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="101" t="s">
-        <v>103</v>
+      <c r="E1" s="95" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:5">
-      <c r="A2" s="102">
+      <c r="A2" s="96">
         <v>705</v>
       </c>
-      <c r="B2" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="103">
+      <c r="B2" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="97">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:5">
-      <c r="A3" s="102">
+      <c r="A3" s="96">
         <v>706</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="103">
+      <c r="B3" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="97">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:5">
-      <c r="A4" s="102">
+      <c r="A4" s="96">
         <v>707</v>
       </c>
-      <c r="B4" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="103">
+      <c r="B4" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="97">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:5">
-      <c r="A5" s="102">
+      <c r="A5" s="96">
         <v>708</v>
       </c>
-      <c r="B5" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="103">
+      <c r="B5" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="97">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:5">
-      <c r="A6" s="102">
+      <c r="A6" s="96">
         <v>709</v>
       </c>
-      <c r="B6" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="102" t="s">
+      <c r="B6" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="103" t="s">
-        <v>114</v>
+      <c r="D6" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:5">
-      <c r="A7" s="102">
+      <c r="A7" s="96">
         <v>710</v>
       </c>
-      <c r="B7" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>117</v>
+      <c r="D7" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:5">
-      <c r="A8" s="102">
+      <c r="A8" s="96">
         <v>711</v>
       </c>
-      <c r="B8" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="102" t="s">
+      <c r="B8" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="103" t="s">
-        <v>120</v>
+      <c r="D8" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6040,193 +5828,257 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="90" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="90" customWidth="1"/>
-    <col min="3" max="3" width="21.0916666666667" style="90" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="90" customWidth="1"/>
-    <col min="5" max="5" width="34.2166666666667" style="90" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="90"/>
+    <col min="1" max="1" width="28.25" style="81" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="81" customWidth="1"/>
+    <col min="3" max="3" width="21.0916666666667" style="81" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="81" customWidth="1"/>
+    <col min="5" max="5" width="34.2166666666667" style="81" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" s="90" customFormat="1" spans="1:5">
-      <c r="A1" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="91" t="s">
+    <row r="1" s="81" customFormat="1" spans="1:5">
+      <c r="A1" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="92" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A2" s="93" t="s">
+    <row r="2" s="83" customFormat="1" ht="19" customHeight="1" spans="1:5">
+      <c r="A2" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-    </row>
-    <row r="3" s="90" customFormat="1" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="96" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+    </row>
+    <row r="3" s="81" customFormat="1" spans="1:5">
+      <c r="A3" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" s="90" customFormat="1" spans="1:5">
-      <c r="A4" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="96" t="s">
+      <c r="E3" s="87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" s="81" customFormat="1" spans="1:5">
+      <c r="A4" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" s="90" customFormat="1" spans="1:5">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" s="90" customFormat="1" ht="27" spans="1:5">
-      <c r="A6" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" s="90" customFormat="1" spans="1:5">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="96" t="s">
+      <c r="E4" s="87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" s="81" customFormat="1" spans="1:5">
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" s="81" customFormat="1" ht="27" spans="1:5">
+      <c r="A6" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" s="81" customFormat="1" spans="1:5">
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" s="90" customFormat="1" ht="27" spans="1:5">
-      <c r="A8" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="97" t="s">
+      <c r="E7" s="87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" s="81" customFormat="1" ht="27" spans="1:5">
+      <c r="A8" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" s="81" customFormat="1" spans="1:5">
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" s="81" customFormat="1" ht="27" spans="1:5">
+      <c r="A10" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" s="81" customFormat="1" spans="1:5">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" s="81" customFormat="1" ht="27" spans="1:5">
+      <c r="A12" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" s="81" customFormat="1" spans="1:5">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" s="83" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A14" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+    </row>
+    <row r="15" s="81" customFormat="1" spans="1:5">
+      <c r="A15" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" s="90" customFormat="1" spans="1:5">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="96" t="s">
+      <c r="B15" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" s="92" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A10" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-    </row>
-    <row r="11" s="90" customFormat="1" spans="1:5">
-      <c r="A11" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>128</v>
+      <c r="E15" s="87" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6247,28 +6099,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1083333333333" style="90" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="90" customWidth="1"/>
-    <col min="3" max="3" width="21.0916666666667" style="90" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="90" customWidth="1"/>
-    <col min="5" max="5" width="42.1083333333333" style="90" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="90"/>
+    <col min="1" max="1" width="22.1083333333333" style="81" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="81" customWidth="1"/>
+    <col min="3" max="3" width="21.0916666666667" style="81" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="81" customWidth="1"/>
+    <col min="5" max="5" width="42.1083333333333" style="81" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" s="90" customFormat="1" spans="1:5">
-      <c r="A1" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="91" t="s">
+    <row r="1" s="81" customFormat="1" spans="1:5">
+      <c r="A1" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6281,682 +6133,97 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="44.875" customWidth="1"/>
-    <col min="3" max="3" width="5.95" customWidth="1"/>
-    <col min="4" max="4" width="14.325" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="63.5" style="82" customWidth="1"/>
-    <col min="7" max="7" width="33.125" style="82" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="76" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="84" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A2" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-    </row>
-    <row r="3" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A4" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-    </row>
-    <row r="5" s="81" customFormat="1" ht="27" spans="1:7">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A6" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-    </row>
-    <row r="7" s="81" customFormat="1" ht="81" spans="1:7">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86" t="s">
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="87" t="s">
+      <c r="B1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89" t="s">
+      <c r="C1" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A8" s="85" t="s">
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2" s="77">
+        <v>0</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-    </row>
-    <row r="9" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-    </row>
-    <row r="10" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A10" s="85" t="s">
+      <c r="C2" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-    </row>
-    <row r="11" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86" t="s">
+    </row>
+    <row r="3" ht="16.5" spans="1:4">
+      <c r="A3" s="77">
+        <v>1</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="87" t="s">
+      <c r="C3" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-    </row>
-    <row r="13" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-    </row>
-    <row r="14" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
-    </row>
-    <row r="15" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-    </row>
-    <row r="16" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-    </row>
-    <row r="17" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-    </row>
-    <row r="18" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-    </row>
-    <row r="19" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-    </row>
-    <row r="20" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-    </row>
-    <row r="21" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A21" s="85" t="s">
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
+      <c r="A4" s="75">
+        <v>10</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-    </row>
-    <row r="22" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86" t="s">
+      <c r="C4" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-    </row>
-    <row r="23" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86" t="s">
+      <c r="D4" s="80"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
+      <c r="A5" s="75">
+        <v>100</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-    </row>
-    <row r="24" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86" t="s">
+      <c r="C5" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="80"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
+      <c r="A6" s="75">
+        <v>200</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-    </row>
-    <row r="25" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-    </row>
-    <row r="26" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A26" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-    </row>
-    <row r="27" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-    </row>
-    <row r="28" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-    </row>
-    <row r="29" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A30" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-    </row>
-    <row r="31" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-    </row>
-    <row r="32" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-    </row>
-    <row r="33" s="81" customFormat="1" ht="27" spans="1:7">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-    </row>
-    <row r="35" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A35" s="85" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-    </row>
-    <row r="36" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="88"/>
-    </row>
-    <row r="37" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-    </row>
-    <row r="38" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-    </row>
-    <row r="39" s="81" customFormat="1" ht="40.5" spans="1:7">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-    </row>
-    <row r="41" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A41" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-    </row>
-    <row r="42" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-    </row>
-    <row r="43" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="89"/>
-    </row>
-    <row r="44" s="81" customFormat="1" ht="27" spans="1:7">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="88"/>
-      <c r="G44" s="89" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
+      <c r="C6" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="80"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="1">
+    <mergeCell ref="D3:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6964,478 +6231,177 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="44.875" customWidth="1"/>
-    <col min="3" max="3" width="5.95" customWidth="1"/>
-    <col min="4" max="4" width="14.325" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="63.5" style="82" customWidth="1"/>
-    <col min="7" max="7" width="33.125" style="82" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="84" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A2" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-    </row>
-    <row r="3" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A4" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-    </row>
-    <row r="5" s="81" customFormat="1" ht="27" spans="1:7">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A6" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-    </row>
-    <row r="7" s="81" customFormat="1" ht="81" spans="1:7">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A8" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-    </row>
-    <row r="9" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-    </row>
-    <row r="10" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A10" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-    </row>
-    <row r="11" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-    </row>
-    <row r="13" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-    </row>
-    <row r="14" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
-    </row>
-    <row r="15" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-    </row>
-    <row r="16" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-    </row>
-    <row r="17" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-    </row>
-    <row r="18" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-    </row>
-    <row r="19" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-    </row>
-    <row r="20" s="81" customFormat="1" ht="18.75" hidden="1" spans="1:7">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-    </row>
-    <row r="21" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A21" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-    </row>
-    <row r="22" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-    </row>
-    <row r="23" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-    </row>
-    <row r="24" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-    </row>
-    <row r="25" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86" t="s">
+    <row r="1" ht="21" spans="1:5">
+      <c r="A1" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-    </row>
-    <row r="26" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A26" s="85" t="s">
+      <c r="B1" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" ht="21" spans="1:5">
+      <c r="A2" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-    </row>
-    <row r="27" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86" t="s">
+      <c r="C2" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-    </row>
-    <row r="28" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86" t="s">
+      <c r="D2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-    </row>
-    <row r="29" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86" t="s">
+      <c r="E2" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" ht="21" spans="1:5">
+      <c r="A3" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="21" spans="1:6">
+      <c r="A4" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-    </row>
-    <row r="30" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A30" s="85" t="s">
+      <c r="B4" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" ht="21" spans="1:5">
+      <c r="A5" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" ht="21" spans="1:5">
+      <c r="A6" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="21" spans="1:5">
+      <c r="A7" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-    </row>
-    <row r="31" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-    </row>
-    <row r="32" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="88"/>
-      <c r="G32" s="89"/>
-    </row>
-    <row r="33" s="81" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
+      <c r="B7" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:5">
+      <c r="A8" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="75">
+        <v>0</v>
+      </c>
+      <c r="C8" s="75">
+        <v>0</v>
+      </c>
+      <c r="D8" s="75">
+        <v>0</v>
+      </c>
+      <c r="E8" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="21" spans="1:5">
+      <c r="A9" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="75">
+        <v>0</v>
+      </c>
+      <c r="C9" s="75">
+        <v>0</v>
+      </c>
+      <c r="D9" s="75">
+        <v>0</v>
+      </c>
+      <c r="E9" s="75">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>